--- a/微信信息自动录入/微信信息导出表格.xlsx
+++ b/微信信息自动录入/微信信息导出表格.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,575 +501,383 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1866030458564855498</t>
+          <t>3301486131470197355</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DZ4776-343</t>
+          <t>DJ6188-003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t xml:space="preserve">680 </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>13693040511</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>邵云鹏</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3298179925966989057</t>
+          <t>1866041292833602790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC9134-600</t>
+          <t>553560-053</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>544</t>
+          <t xml:space="preserve">635 </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>15058981960</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>翁世勇</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3299322459915291209</t>
+          <t>3301719805618061219</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CD9054-116</t>
+          <t>DD1391-100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>611</t>
+          <t xml:space="preserve">695 </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>egt3dq@163.com</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>开发区王华宾小商品商店</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3298472643916850026</t>
+          <t>1866694586606017291</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DQ7582-100</t>
+          <t>DQ0492-100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>764</t>
+          <t xml:space="preserve">325 </t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>18523909731</t>
+          <t>15737798347</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>张楠汛</t>
+          <t>李典</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1866162542491326281</t>
+          <t>3301675275783070906</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FD4203-661</t>
+          <t>ARBS001-3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>687</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>18523909731</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>张楠汛</t>
+          <t xml:space="preserve">363 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1865804847822160193</t>
+          <t>3301439042600172613</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DO9581-500</t>
+          <t>DH0832-16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>487</t>
+          <t xml:space="preserve">858 </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>18523909731</t>
+          <t>522425a2cny.cdb@sina.cn</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>张楠汛</t>
+          <t>刘铝</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3298786491968134502</t>
+          <t>3301592619942689440</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DZ5616-100</t>
+          <t>AV4789-009</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>310 顺</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>wsz88t@163.com</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>湛晓妍</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3299470095920519101</t>
+          <t>3301486131470197355</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ML2002RA</t>
+          <t>DJ6188-003</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>936</t>
+          <t xml:space="preserve">680 </t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>13693040511</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>邵云鹏</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1866245990632346269</t>
+          <t>1866041292833602790</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DV3810-001</t>
+          <t>553560-053</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>391</t>
+          <t xml:space="preserve">635 </t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15058981960</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>翁世勇</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3297543732698950040</t>
+          <t>3301719805618061219</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DH5622-100</t>
+          <t>DD1391-100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>630</t>
+          <t xml:space="preserve">695 </t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>egt3dq@163.com</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>开发区王华宾小商品商店</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1865107488102537995</t>
+          <t>1866694586606017291</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC9265-100</t>
+          <t>DQ0492-100</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>36.54</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  244</t>
+          <t xml:space="preserve">325 </t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>15737798347</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>李典</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3298803842726039651</t>
-        </is>
-      </c>
+          <t>3301675275783070906</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DH3718-105</t>
+          <t>ARBS001-3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>335</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1864885908936267475</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>555088-161</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>687</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3298928655328345762</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DC8744-301</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3297873816728269744</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DH4402-001</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>36.5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>680</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1865178768021035690</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>DA5380-101</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1865287308881516989</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DQ7660-200</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1865940566375578385</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DV0921-173</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>840</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3298953925017282047</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>DR5487-100</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>40.5</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3296059633147335754</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>DA8009-108</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>44.5</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>430|</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>15238115792</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>王同伟</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1866248257926921888</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>AR0465-003</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>40.5</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>17133976777</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>李帅鹏</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>3298953925017282047</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>DR5487-100</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>40.5</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3296059633147335754</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>DA8009-108</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>44.5</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>430|</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>15238115792</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>王同伟</t>
+          <t xml:space="preserve">363 </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>18789387956</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>吴明森</t>
         </is>
       </c>
     </row>
